--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="780">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -869,7 +869,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -881,9 +881,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
@@ -902,7 +899,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>`final`</t>
+    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -5925,7 +5922,7 @@
         <v>84</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>84</v>
@@ -5944,7 +5941,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>84</v>
@@ -5977,36 +5974,36 @@
         <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AR25" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -6032,16 +6029,16 @@
         <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>84</v>
@@ -6069,16 +6066,16 @@
         <v>119</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -6088,7 +6085,7 @@
         <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -6112,30 +6109,30 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AP26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AR26" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>84</v>
@@ -6160,16 +6157,16 @@
         <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>84</v>
@@ -6197,11 +6194,11 @@
         <v>119</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>84</v>
       </c>
@@ -6218,7 +6215,7 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -6242,10 +6239,10 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>84</v>
@@ -6259,10 +6256,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6383,10 +6380,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6509,10 +6506,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6535,19 +6532,19 @@
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>84</v>
@@ -6596,7 +6593,7 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -6617,10 +6614,10 @@
         <v>84</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>84</v>
@@ -6637,10 +6634,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6761,10 +6758,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6887,10 +6884,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6916,65 +6913,65 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6995,10 +6992,10 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>84</v>
@@ -7015,10 +7012,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -7044,13 +7041,13 @@
         <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -7100,7 +7097,7 @@
         <v>84</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -7121,10 +7118,10 @@
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>84</v>
@@ -7141,10 +7138,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -7170,63 +7167,63 @@
         <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -7247,10 +7244,10 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -7267,10 +7264,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7296,14 +7293,14 @@
         <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>84</v>
@@ -7352,7 +7349,7 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -7373,10 +7370,10 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>84</v>
@@ -7393,10 +7390,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7419,19 +7416,19 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -7480,7 +7477,7 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -7501,10 +7498,10 @@
         <v>84</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>84</v>
@@ -7521,10 +7518,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7550,16 +7547,16 @@
         <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
@@ -7608,7 +7605,7 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7629,10 +7626,10 @@
         <v>84</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>84</v>
@@ -7649,14 +7646,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7678,16 +7675,16 @@
         <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>84</v>
@@ -7715,11 +7712,11 @@
         <v>212</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>84</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>95</v>
@@ -7751,22 +7748,22 @@
         <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -7777,10 +7774,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7901,10 +7898,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -8027,10 +8024,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -8038,7 +8035,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>83</v>
@@ -8053,19 +8050,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -8102,7 +8099,7 @@
         <v>84</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -8112,7 +8109,7 @@
         <v>144</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -8133,10 +8130,10 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>84</v>
@@ -8153,13 +8150,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>84</v>
@@ -8181,19 +8178,19 @@
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -8203,7 +8200,7 @@
         <v>84</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>84</v>
@@ -8242,7 +8239,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -8263,11 +8260,11 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN43" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AO43" t="s" s="2">
         <v>84</v>
       </c>
@@ -8275,21 +8272,21 @@
         <v>84</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>84</v>
@@ -8311,19 +8308,19 @@
         <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
@@ -8333,7 +8330,7 @@
         <v>84</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>84</v>
@@ -8372,7 +8369,7 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -8393,11 +8390,11 @@
         <v>84</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN44" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AO44" t="s" s="2">
         <v>84</v>
       </c>
@@ -8405,18 +8402,18 @@
         <v>84</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AR44" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8442,16 +8439,16 @@
         <v>182</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>84</v>
@@ -8500,7 +8497,7 @@
         <v>84</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -8521,11 +8518,11 @@
         <v>84</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN45" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AO45" t="s" s="2">
         <v>84</v>
       </c>
@@ -8533,18 +8530,18 @@
         <v>84</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8567,19 +8564,19 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>84</v>
@@ -8628,7 +8625,7 @@
         <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8643,36 +8640,36 @@
         <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AP46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AR46" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8695,16 +8692,16 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8754,7 +8751,7 @@
         <v>84</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8775,13 +8772,13 @@
         <v>84</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>84</v>
@@ -8795,14 +8792,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8821,19 +8818,19 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
@@ -8882,7 +8879,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8897,19 +8894,19 @@
         <v>107</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>84</v>
@@ -8923,14 +8920,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8949,19 +8946,19 @@
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>84</v>
@@ -8998,17 +8995,17 @@
         <v>84</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -9017,25 +9014,25 @@
         <v>95</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
@@ -9049,16 +9046,16 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="D50" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -9077,19 +9074,19 @@
         <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -9138,7 +9135,7 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -9147,42 +9144,42 @@
         <v>95</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AO50" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AP50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9205,16 +9202,16 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -9264,7 +9261,7 @@
         <v>84</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -9285,13 +9282,13 @@
         <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>84</v>
@@ -9305,10 +9302,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9331,17 +9328,17 @@
         <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>84</v>
@@ -9390,7 +9387,7 @@
         <v>84</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -9405,25 +9402,25 @@
         <v>107</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AO52" t="s" s="2">
+      <c r="AP52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AR52" t="s" s="2">
         <v>84</v>
@@ -9431,10 +9428,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9555,10 +9552,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9681,13 +9678,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>84</v>
@@ -9709,16 +9706,16 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9801,7 +9798,7 @@
         <v>84</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AR55" t="s" s="2">
         <v>84</v>
@@ -9809,10 +9806,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9933,10 +9930,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10057,10 +10054,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10086,13 +10083,13 @@
         <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -10100,49 +10097,49 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>95</v>
@@ -10183,10 +10180,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10209,13 +10206,13 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -10266,7 +10263,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -10275,7 +10272,7 @@
         <v>95</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>107</v>
@@ -10307,10 +10304,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10336,13 +10333,13 @@
         <v>182</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10392,7 +10389,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -10401,7 +10398,7 @@
         <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>107</v>
@@ -10433,10 +10430,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10462,13 +10459,13 @@
         <v>109</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10497,28 +10494,28 @@
         <v>212</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z61" t="s" s="2">
+      <c r="AA61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10559,10 +10556,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10588,13 +10585,13 @@
         <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10644,7 +10641,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10668,7 +10665,7 @@
         <v>84</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>84</v>
@@ -10685,10 +10682,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10714,13 +10711,13 @@
         <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10770,7 +10767,7 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10811,10 +10808,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10837,19 +10834,19 @@
         <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10877,11 +10874,11 @@
         <v>212</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>84</v>
       </c>
@@ -10898,7 +10895,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10907,7 +10904,7 @@
         <v>95</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>107</v>
@@ -10916,33 +10913,33 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP64" t="s" s="2">
+      <c r="AQ64" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AQ64" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AR64" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10968,16 +10965,16 @@
         <v>207</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>84</v>
@@ -11005,11 +11002,11 @@
         <v>212</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
       </c>
@@ -11026,7 +11023,7 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -11035,7 +11032,7 @@
         <v>95</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>107</v>
@@ -11050,7 +11047,7 @@
         <v>138</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>84</v>
@@ -11067,14 +11064,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -11096,16 +11093,16 @@
         <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>84</v>
@@ -11133,11 +11130,11 @@
         <v>212</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>84</v>
       </c>
@@ -11154,7 +11151,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -11172,19 +11169,19 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>84</v>
@@ -11195,10 +11192,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11221,19 +11218,19 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -11282,7 +11279,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -11303,10 +11300,10 @@
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>84</v>
@@ -11323,10 +11320,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11352,13 +11349,13 @@
         <v>207</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -11384,14 +11381,14 @@
         <v>84</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>84</v>
       </c>
@@ -11408,7 +11405,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -11426,22 +11423,22 @@
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
+      <c r="AQ68" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>84</v>
@@ -11449,10 +11446,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11478,16 +11475,16 @@
         <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>84</v>
@@ -11512,14 +11509,14 @@
         <v>84</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>84</v>
       </c>
@@ -11536,7 +11533,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -11557,19 +11554,19 @@
         <v>84</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AR69" t="s" s="2">
         <v>84</v>
@@ -11577,10 +11574,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11603,16 +11600,16 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11662,7 +11659,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11680,19 +11677,19 @@
         <v>84</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>84</v>
@@ -11703,10 +11700,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11729,16 +11726,16 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11788,7 +11785,7 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11806,19 +11803,19 @@
         <v>84</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AQ71" t="s" s="2">
         <v>84</v>
@@ -11829,10 +11826,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11855,19 +11852,19 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>84</v>
@@ -11916,7 +11913,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11928,19 +11925,19 @@
         <v>84</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>84</v>
@@ -11957,10 +11954,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -12081,10 +12078,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -12207,14 +12204,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -12236,10 +12233,10 @@
         <v>140</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>164</v>
@@ -12294,7 +12291,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -12335,10 +12332,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12361,13 +12358,13 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -12418,7 +12415,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -12427,7 +12424,7 @@
         <v>95</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>107</v>
@@ -12439,10 +12436,10 @@
         <v>84</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
@@ -12459,10 +12456,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12485,13 +12482,13 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -12542,7 +12539,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12551,7 +12548,7 @@
         <v>95</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>107</v>
@@ -12563,10 +12560,10 @@
         <v>84</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>84</v>
@@ -12583,10 +12580,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12612,16 +12609,16 @@
         <v>207</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -12649,11 +12646,11 @@
         <v>119</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>84</v>
       </c>
@@ -12670,7 +12667,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -12688,13 +12685,13 @@
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
@@ -12711,10 +12708,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12740,16 +12737,16 @@
         <v>207</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>84</v>
@@ -12774,14 +12771,14 @@
         <v>84</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>84</v>
       </c>
@@ -12798,7 +12795,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12816,13 +12813,13 @@
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AM79" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="AN79" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12839,10 +12836,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12865,17 +12862,17 @@
         <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>84</v>
@@ -12924,7 +12921,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12948,7 +12945,7 @@
         <v>84</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
@@ -12965,10 +12962,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12994,10 +12991,10 @@
         <v>182</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -13048,7 +13045,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -13069,10 +13066,10 @@
         <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -13089,10 +13086,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13115,16 +13112,16 @@
         <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -13174,7 +13171,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -13195,10 +13192,10 @@
         <v>84</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
@@ -13215,10 +13212,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13241,16 +13238,16 @@
         <v>96</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -13300,7 +13297,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -13321,10 +13318,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -13341,10 +13338,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13367,19 +13364,19 @@
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>84</v>
@@ -13416,7 +13413,7 @@
         <v>84</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
@@ -13426,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -13438,19 +13435,19 @@
         <v>84</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="AK84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
@@ -13467,10 +13464,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13591,10 +13588,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13717,14 +13714,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13746,10 +13743,10 @@
         <v>140</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>164</v>
@@ -13804,7 +13801,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13845,10 +13842,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13874,16 +13871,16 @@
         <v>207</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13911,11 +13908,11 @@
         <v>212</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>84</v>
       </c>
@@ -13932,7 +13929,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>95</v>
@@ -13950,22 +13947,22 @@
         <v>84</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ88" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ88" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="AR88" t="s" s="2">
         <v>84</v>
@@ -13973,10 +13970,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13999,19 +13996,19 @@
         <v>96</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="O89" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -14039,11 +14036,11 @@
         <v>212</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>84</v>
       </c>
@@ -14060,7 +14057,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -14069,7 +14066,7 @@
         <v>95</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>107</v>
@@ -14078,19 +14075,19 @@
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP89" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AQ89" t="s" s="2">
         <v>84</v>
@@ -14101,10 +14098,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -14130,16 +14127,16 @@
         <v>207</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>690</v>
-      </c>
       <c r="O90" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>84</v>
@@ -14167,11 +14164,11 @@
         <v>212</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AA90" t="s" s="2">
         <v>84</v>
       </c>
@@ -14188,7 +14185,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -14197,7 +14194,7 @@
         <v>95</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>107</v>
@@ -14212,7 +14209,7 @@
         <v>138</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>
@@ -14229,14 +14226,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -14258,16 +14255,16 @@
         <v>207</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -14295,11 +14292,11 @@
         <v>212</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>84</v>
       </c>
@@ -14316,7 +14313,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -14334,19 +14331,19 @@
         <v>84</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP91" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AQ91" t="s" s="2">
         <v>84</v>
@@ -14357,10 +14354,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14386,16 +14383,16 @@
         <v>85</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="N92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O92" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>84</v>
@@ -14444,7 +14441,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -14465,10 +14462,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -14485,13 +14482,13 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>84</v>
@@ -14513,19 +14510,19 @@
         <v>96</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>699</v>
-      </c>
       <c r="N93" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="O93" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>84</v>
@@ -14574,7 +14571,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -14586,19 +14583,19 @@
         <v>84</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -14615,10 +14612,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14739,10 +14736,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14865,14 +14862,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14894,10 +14891,10 @@
         <v>140</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>164</v>
@@ -14952,7 +14949,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14993,10 +14990,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -15022,16 +15019,16 @@
         <v>207</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>84</v>
@@ -15041,7 +15038,7 @@
         <v>84</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>84</v>
@@ -15059,11 +15056,11 @@
         <v>212</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>84</v>
       </c>
@@ -15080,7 +15077,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>95</v>
@@ -15098,16 +15095,16 @@
         <v>84</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>84</v>
@@ -15121,10 +15118,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15147,19 +15144,19 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="N98" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="O98" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>84</v>
@@ -15187,11 +15184,11 @@
         <v>212</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z98" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AA98" t="s" s="2">
         <v>84</v>
       </c>
@@ -15208,7 +15205,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -15217,7 +15214,7 @@
         <v>95</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>107</v>
@@ -15226,19 +15223,19 @@
         <v>84</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN98" t="s" s="2">
+      <c r="AO98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP98" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AQ98" t="s" s="2">
         <v>84</v>
@@ -15249,10 +15246,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -15373,10 +15370,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15499,10 +15496,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15525,19 +15522,19 @@
         <v>96</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>84</v>
@@ -15586,7 +15583,7 @@
         <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -15607,10 +15604,10 @@
         <v>84</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>84</v>
@@ -15627,10 +15624,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15656,20 +15653,20 @@
         <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q102" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q102" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>84</v>
@@ -15693,28 +15690,28 @@
         <v>200</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="Z102" t="s" s="2">
+      <c r="AA102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -15735,10 +15732,10 @@
         <v>84</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>84</v>
@@ -15755,10 +15752,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15784,14 +15781,14 @@
         <v>182</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>84</v>
@@ -15840,7 +15837,7 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -15861,10 +15858,10 @@
         <v>84</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>84</v>
@@ -15881,10 +15878,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15910,63 +15907,63 @@
         <v>109</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF104" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15975,7 +15972,7 @@
         <v>95</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>107</v>
@@ -15987,10 +15984,10 @@
         <v>84</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>84</v>
@@ -16007,10 +16004,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -16036,65 +16033,65 @@
         <v>115</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF105" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>756</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>82</v>
@@ -16115,10 +16112,10 @@
         <v>84</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>84</v>
@@ -16135,10 +16132,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -16164,16 +16161,16 @@
         <v>207</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N106" t="s" s="2">
-        <v>690</v>
-      </c>
       <c r="O106" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>84</v>
@@ -16201,11 +16198,11 @@
         <v>212</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>84</v>
       </c>
@@ -16222,7 +16219,7 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>82</v>
@@ -16231,7 +16228,7 @@
         <v>95</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>107</v>
@@ -16246,7 +16243,7 @@
         <v>138</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>84</v>
@@ -16263,14 +16260,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -16292,16 +16289,16 @@
         <v>207</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>84</v>
@@ -16329,11 +16326,11 @@
         <v>212</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>84</v>
       </c>
@@ -16350,7 +16347,7 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
@@ -16368,19 +16365,19 @@
         <v>84</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AO107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP107" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AQ107" t="s" s="2">
         <v>84</v>
@@ -16391,10 +16388,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16420,16 +16417,16 @@
         <v>85</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M108" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="N108" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O108" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>84</v>
@@ -16478,7 +16475,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -16499,10 +16496,10 @@
         <v>84</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>84</v>
@@ -16519,13 +16516,13 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C109" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>762</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>84</v>
@@ -16547,19 +16544,19 @@
         <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N109" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="O109" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>84</v>
@@ -16608,7 +16605,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>82</v>
@@ -16620,19 +16617,19 @@
         <v>84</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="AK109" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AN109" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>84</v>
@@ -16649,10 +16646,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16773,10 +16770,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16899,14 +16896,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16928,10 +16925,10 @@
         <v>140</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>164</v>
@@ -16986,7 +16983,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -17027,10 +17024,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -17056,16 +17053,16 @@
         <v>207</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>84</v>
@@ -17075,7 +17072,7 @@
         <v>84</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>84</v>
@@ -17093,11 +17090,11 @@
         <v>212</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z113" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA113" t="s" s="2">
         <v>84</v>
       </c>
@@ -17114,7 +17111,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>95</v>
@@ -17132,16 +17129,16 @@
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>84</v>
@@ -17155,10 +17152,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -17181,19 +17178,19 @@
         <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="N114" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="O114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>84</v>
@@ -17221,11 +17218,11 @@
         <v>212</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z114" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AA114" t="s" s="2">
         <v>84</v>
       </c>
@@ -17242,7 +17239,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -17251,7 +17248,7 @@
         <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>107</v>
@@ -17260,19 +17257,19 @@
         <v>84</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AO114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AQ114" t="s" s="2">
         <v>84</v>
@@ -17283,10 +17280,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -17407,10 +17404,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17533,10 +17530,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17559,19 +17556,19 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>84</v>
@@ -17620,7 +17617,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -17641,10 +17638,10 @@
         <v>84</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>84</v>
@@ -17661,10 +17658,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17690,20 +17687,20 @@
         <v>115</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q118" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q118" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>84</v>
@@ -17727,28 +17724,28 @@
         <v>200</v>
       </c>
       <c r="Y118" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="Z118" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="Z118" t="s" s="2">
+      <c r="AA118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF118" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -17769,10 +17766,10 @@
         <v>84</v>
       </c>
       <c r="AM118" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
@@ -17789,10 +17786,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17818,14 +17815,14 @@
         <v>182</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>84</v>
@@ -17874,7 +17871,7 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
@@ -17895,10 +17892,10 @@
         <v>84</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>84</v>
@@ -17915,10 +17912,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17944,63 +17941,63 @@
         <v>109</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF120" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -18009,7 +18006,7 @@
         <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -18021,10 +18018,10 @@
         <v>84</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
@@ -18041,10 +18038,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -18070,23 +18067,23 @@
         <v>115</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>84</v>
@@ -18128,7 +18125,7 @@
         <v>84</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -18149,10 +18146,10 @@
         <v>84</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>84</v>
@@ -18169,10 +18166,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18198,16 +18195,16 @@
         <v>207</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N122" t="s" s="2">
-        <v>690</v>
-      </c>
       <c r="O122" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>84</v>
@@ -18235,11 +18232,11 @@
         <v>212</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>84</v>
       </c>
@@ -18256,7 +18253,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -18265,7 +18262,7 @@
         <v>95</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>107</v>
@@ -18280,7 +18277,7 @@
         <v>138</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>84</v>
@@ -18297,14 +18294,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -18326,16 +18323,16 @@
         <v>207</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>84</v>
@@ -18363,11 +18360,11 @@
         <v>212</v>
       </c>
       <c r="Y123" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z123" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Z123" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AA123" t="s" s="2">
         <v>84</v>
       </c>
@@ -18384,7 +18381,7 @@
         <v>84</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>82</v>
@@ -18402,19 +18399,19 @@
         <v>84</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AM123" t="s" s="2">
+      <c r="AN123" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AN123" t="s" s="2">
+      <c r="AO123" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP123" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP123" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AQ123" t="s" s="2">
         <v>84</v>
@@ -18425,10 +18422,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18454,16 +18451,16 @@
         <v>85</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M124" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="N124" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O124" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>84</v>
@@ -18512,7 +18509,7 @@
         <v>84</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>82</v>
@@ -18533,10 +18530,10 @@
         <v>84</v>
       </c>
       <c r="AM124" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN124" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,6 +238,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to MHV-PHR</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -254,12 +260,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: eVault-PHR to MHV-PHR</t>
   </si>
   <si>
     <t>Vital Signs
@@ -289,6 +289,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
+    <t>VitalSignTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>VitalSignTO</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -514,6 +514,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {VitalSignTO.type.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -524,9 +527,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {VitalSignTO.type.id}</t>
   </si>
   <si>
     <t>Observation.identifier:TOid</t>
@@ -839,6 +839,9 @@
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
+    <t>`final` if not `entered-in-error`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -852,9 +855,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -882,13 +882,13 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>`vital-signs`</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`vital-signs`</t>
   </si>
   <si>
     <t>Observation.category:VSCat</t>
@@ -1229,6 +1229,9 @@
     <t>Observations have no value if you don't know who or what they're about.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1239,9 +1242,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -1398,6 +1398,9 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>contained VitalSignTO.observer</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1408,9 +1411,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>contained VitalSignTO.observer</t>
   </si>
   <si>
     <t>Observation.performer.id</t>
@@ -1613,6 +1613,9 @@
 vs-2</t>
   </si>
   <si>
+    <t>VitalSignTO.value1 and VitalSignTO.units</t>
+  </si>
+  <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
@@ -1623,9 +1626,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>VitalSignTO.value1 and VitalSignTO.units</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2788,14 +2788,14 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="37.41015625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="37.41015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.41015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.41015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3037,25 +3037,25 @@
         <v>89</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AO2" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AP2" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3671,13 +3671,13 @@
         <v>84</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ7" t="s" s="2">
         <v>84</v>
@@ -3797,13 +3797,13 @@
         <v>84</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ8" t="s" s="2">
         <v>84</v>
@@ -3923,13 +3923,13 @@
         <v>84</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ9" t="s" s="2">
         <v>84</v>
@@ -4051,13 +4051,13 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>84</v>
@@ -4175,13 +4175,13 @@
         <v>160</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>163</v>
@@ -4294,7 +4294,7 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>84</v>
@@ -4303,16 +4303,16 @@
         <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ12" t="s" s="2">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="AR12" t="s" s="2">
         <v>84</v>
@@ -4427,13 +4427,13 @@
         <v>84</v>
       </c>
       <c r="AN13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>84</v>
@@ -4553,13 +4553,13 @@
         <v>84</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>84</v>
@@ -4678,16 +4678,16 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>84</v>
@@ -4806,16 +4806,16 @@
         <v>84</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>84</v>
@@ -4934,16 +4934,16 @@
         <v>84</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>84</v>
@@ -5060,16 +5060,16 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>84</v>
@@ -5184,16 +5184,16 @@
         <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>84</v>
@@ -5310,16 +5310,16 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>84</v>
@@ -5430,22 +5430,22 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>84</v>
@@ -5556,22 +5556,22 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>84</v>
@@ -5685,25 +5685,25 @@
         <v>264</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>269</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -5808,28 +5808,28 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="AO24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5947,16 +5947,16 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="AO25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ25" t="s" s="2">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="AR25" t="s" s="2">
         <v>84</v>
@@ -6071,13 +6071,13 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>84</v>
@@ -6197,13 +6197,13 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>84</v>
@@ -6322,16 +6322,16 @@
         <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>84</v>
@@ -6449,13 +6449,13 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>84</v>
@@ -6575,13 +6575,13 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>84</v>
@@ -6700,16 +6700,16 @@
         <v>84</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>84</v>
@@ -6826,16 +6826,16 @@
         <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>84</v>
@@ -6952,16 +6952,16 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>84</v>
@@ -7078,16 +7078,16 @@
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>84</v>
@@ -7206,16 +7206,16 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>84</v>
@@ -7334,16 +7334,16 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>84</v>
@@ -7456,28 +7456,28 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AR37" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -7589,13 +7589,13 @@
         <v>84</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>84</v>
@@ -7715,13 +7715,13 @@
         <v>84</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -7838,16 +7838,16 @@
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>84</v>
@@ -7962,28 +7962,28 @@
         <v>107</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ41" t="s" s="2">
-        <v>377</v>
+        <v>84</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>377</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -8092,28 +8092,28 @@
         <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ42" t="s" s="2">
-        <v>381</v>
+        <v>84</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>381</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -8220,28 +8220,28 @@
         <v>107</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AO43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ43" t="s" s="2">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>383</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -8351,25 +8351,25 @@
         <v>390</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>84</v>
+        <v>390</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AP44" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AR44" t="s" s="2">
-        <v>394</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -8480,19 +8480,19 @@
         <v>84</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AP45" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AO45" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ45" t="s" s="2">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="AR45" t="s" s="2">
         <v>84</v>
@@ -8602,25 +8602,25 @@
         <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR46" t="s" s="2">
         <v>84</v>
@@ -8728,25 +8728,25 @@
         <v>422</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AP47" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AO47" t="s" s="2">
+      <c r="AQ47" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>84</v>
@@ -8858,28 +8858,28 @@
         <v>422</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AP48" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AO48" t="s" s="2">
+      <c r="AQ48" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AP48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ48" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AR48" t="s" s="2">
-        <v>429</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -8990,19 +8990,19 @@
         <v>84</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AP49" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AO49" t="s" s="2">
+      <c r="AQ49" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>84</v>
@@ -9119,13 +9119,13 @@
         <v>444</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AO50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>447</v>
@@ -9243,13 +9243,13 @@
         <v>84</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>84</v>
@@ -9369,13 +9369,13 @@
         <v>84</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>84</v>
@@ -9488,7 +9488,7 @@
         <v>146</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>84</v>
+        <v>456</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>84</v>
@@ -9506,7 +9506,7 @@
         <v>84</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>456</v>
+        <v>84</v>
       </c>
       <c r="AR53" t="s" s="2">
         <v>84</v>
@@ -9621,13 +9621,13 @@
         <v>84</v>
       </c>
       <c r="AN54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>84</v>
@@ -9871,13 +9871,13 @@
         <v>84</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP56" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>84</v>
@@ -9995,13 +9995,13 @@
         <v>84</v>
       </c>
       <c r="AN57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>84</v>
@@ -10121,13 +10121,13 @@
         <v>84</v>
       </c>
       <c r="AN58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>84</v>
@@ -10247,13 +10247,13 @@
         <v>84</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>84</v>
@@ -10373,13 +10373,13 @@
         <v>84</v>
       </c>
       <c r="AN60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>84</v>
@@ -10499,13 +10499,13 @@
         <v>84</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>84</v>
@@ -10618,25 +10618,25 @@
         <v>107</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>84</v>
+        <v>511</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>514</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>515</v>
+        <v>84</v>
       </c>
       <c r="AR62" t="s" s="2">
         <v>515</v>
@@ -10752,16 +10752,16 @@
         <v>84</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AP63" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>84</v>
@@ -10877,25 +10877,25 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AP64" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP64" t="s" s="2">
+      <c r="AQ64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -11008,16 +11008,16 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AP65" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ65" t="s" s="2">
         <v>84</v>
@@ -11131,25 +11131,25 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AP66" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AO66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP66" t="s" s="2">
+      <c r="AQ66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR66" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -11262,16 +11262,16 @@
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AP67" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>84</v>
@@ -11385,25 +11385,25 @@
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AP68" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
+      <c r="AQ68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR68" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR68" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -11511,25 +11511,25 @@
         <v>84</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AP69" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AO69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP69" t="s" s="2">
+      <c r="AQ69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR69" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR69" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -11642,16 +11642,16 @@
         <v>84</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AP70" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>84</v>
@@ -11769,13 +11769,13 @@
         <v>84</v>
       </c>
       <c r="AN71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ71" t="s" s="2">
         <v>84</v>
@@ -11895,13 +11895,13 @@
         <v>84</v>
       </c>
       <c r="AN72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ72" t="s" s="2">
         <v>84</v>
@@ -12023,13 +12023,13 @@
         <v>84</v>
       </c>
       <c r="AN73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ73" t="s" s="2">
         <v>84</v>
@@ -12144,16 +12144,16 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AP74" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ74" t="s" s="2">
         <v>84</v>
@@ -12268,16 +12268,16 @@
         <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AP75" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ75" t="s" s="2">
         <v>84</v>
@@ -12393,19 +12393,19 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AP76" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ76" t="s" s="2">
         <v>84</v>
@@ -12521,19 +12521,19 @@
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AP77" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ77" t="s" s="2">
         <v>84</v>
@@ -12653,13 +12653,13 @@
         <v>84</v>
       </c>
       <c r="AN78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP78" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>84</v>
@@ -12774,16 +12774,16 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AP79" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ79" t="s" s="2">
         <v>84</v>
@@ -12900,16 +12900,16 @@
         <v>84</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AP80" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>84</v>
@@ -13026,16 +13026,16 @@
         <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AP81" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ81" t="s" s="2">
         <v>84</v>
@@ -13152,16 +13152,16 @@
         <v>84</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AP82" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ82" t="s" s="2">
         <v>84</v>
@@ -13279,13 +13279,13 @@
         <v>84</v>
       </c>
       <c r="AN83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ83" t="s" s="2">
         <v>84</v>
@@ -13405,13 +13405,13 @@
         <v>84</v>
       </c>
       <c r="AN84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ84" t="s" s="2">
         <v>84</v>
@@ -13533,13 +13533,13 @@
         <v>84</v>
       </c>
       <c r="AN85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>84</v>
@@ -13655,22 +13655,22 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AP86" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AO86" t="s" s="2">
+      <c r="AQ86" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ86" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR86" t="s" s="2">
         <v>84</v>
@@ -13783,16 +13783,16 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="AM87" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AO87" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>514</v>
@@ -13801,7 +13801,7 @@
         <v>84</v>
       </c>
       <c r="AR87" t="s" s="2">
-        <v>84</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" hidden="true">
@@ -13914,16 +13914,16 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AP88" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>84</v>
@@ -14039,25 +14039,25 @@
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AP89" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AO89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP89" t="s" s="2">
+      <c r="AQ89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR89" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AQ89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR89" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -14170,16 +14170,16 @@
         <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AP90" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ90" t="s" s="2">
         <v>84</v>
@@ -14300,16 +14300,16 @@
         <v>84</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AP91" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ91" t="s" s="2">
         <v>84</v>
@@ -14427,13 +14427,13 @@
         <v>84</v>
       </c>
       <c r="AN92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ92" t="s" s="2">
         <v>84</v>
@@ -14553,13 +14553,13 @@
         <v>84</v>
       </c>
       <c r="AN93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ93" t="s" s="2">
         <v>84</v>
@@ -14681,13 +14681,13 @@
         <v>84</v>
       </c>
       <c r="AN94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ94" t="s" s="2">
         <v>84</v>
@@ -14803,22 +14803,22 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AP95" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AO95" t="s" s="2">
+      <c r="AQ95" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ95" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR95" t="s" s="2">
         <v>84</v>
@@ -14931,16 +14931,16 @@
         <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="AM96" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>514</v>
@@ -14949,7 +14949,7 @@
         <v>84</v>
       </c>
       <c r="AR96" t="s" s="2">
-        <v>84</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -15061,13 +15061,13 @@
         <v>84</v>
       </c>
       <c r="AN97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ97" t="s" s="2">
         <v>84</v>
@@ -15187,13 +15187,13 @@
         <v>84</v>
       </c>
       <c r="AN98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP98" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ98" t="s" s="2">
         <v>84</v>
@@ -15312,16 +15312,16 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AP99" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ99" t="s" s="2">
         <v>84</v>
@@ -15440,16 +15440,16 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO100" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AP100" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ100" t="s" s="2">
         <v>84</v>
@@ -15566,16 +15566,16 @@
         <v>84</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AP101" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ101" t="s" s="2">
         <v>84</v>
@@ -15692,16 +15692,16 @@
         <v>84</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO102" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AP102" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ102" t="s" s="2">
         <v>84</v>
@@ -15820,16 +15820,16 @@
         <v>84</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO103" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AN103" t="s" s="2">
+      <c r="AP103" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ103" t="s" s="2">
         <v>84</v>
@@ -15948,16 +15948,16 @@
         <v>84</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AP104" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ104" t="s" s="2">
         <v>84</v>
@@ -16073,25 +16073,25 @@
         <v>84</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AO105" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AP105" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AO105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP105" t="s" s="2">
+      <c r="AQ105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR105" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AQ105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR105" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="106" hidden="true">
@@ -16204,16 +16204,16 @@
         <v>84</v>
       </c>
       <c r="AM106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO106" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AP106" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ106" t="s" s="2">
         <v>84</v>
@@ -16334,16 +16334,16 @@
         <v>84</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AP107" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ107" t="s" s="2">
         <v>84</v>
@@ -16461,13 +16461,13 @@
         <v>84</v>
       </c>
       <c r="AN108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP108" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ108" t="s" s="2">
         <v>84</v>
@@ -16587,13 +16587,13 @@
         <v>84</v>
       </c>
       <c r="AN109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ109" t="s" s="2">
         <v>84</v>
@@ -16715,13 +16715,13 @@
         <v>84</v>
       </c>
       <c r="AN110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP110" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ110" t="s" s="2">
         <v>84</v>
@@ -16837,22 +16837,22 @@
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="AM111" t="s" s="2">
+      <c r="AO111" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN111" t="s" s="2">
+      <c r="AP111" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AO111" t="s" s="2">
+      <c r="AQ111" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ111" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR111" t="s" s="2">
         <v>84</v>
@@ -16965,16 +16965,16 @@
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="AM112" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AN112" t="s" s="2">
+      <c r="AO112" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>514</v>
@@ -16983,7 +16983,7 @@
         <v>84</v>
       </c>
       <c r="AR112" t="s" s="2">
-        <v>84</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" hidden="true">
@@ -17095,13 +17095,13 @@
         <v>84</v>
       </c>
       <c r="AN113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP113" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ113" t="s" s="2">
         <v>84</v>
@@ -17221,13 +17221,13 @@
         <v>84</v>
       </c>
       <c r="AN114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ114" t="s" s="2">
         <v>84</v>
@@ -17346,16 +17346,16 @@
         <v>84</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO115" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="AN115" t="s" s="2">
+      <c r="AP115" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ115" t="s" s="2">
         <v>84</v>
@@ -17474,16 +17474,16 @@
         <v>84</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO116" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AP116" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ116" t="s" s="2">
         <v>84</v>
@@ -17600,16 +17600,16 @@
         <v>84</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AN117" t="s" s="2">
+      <c r="AP117" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ117" t="s" s="2">
         <v>84</v>
@@ -17726,16 +17726,16 @@
         <v>84</v>
       </c>
       <c r="AM118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AN118" t="s" s="2">
+      <c r="AP118" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ118" t="s" s="2">
         <v>84</v>
@@ -17854,16 +17854,16 @@
         <v>84</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO119" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AN119" t="s" s="2">
+      <c r="AP119" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ119" t="s" s="2">
         <v>84</v>
@@ -17982,16 +17982,16 @@
         <v>84</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AP120" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ120" t="s" s="2">
         <v>84</v>
@@ -18107,25 +18107,25 @@
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN121" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM121" t="s" s="2">
+      <c r="AO121" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN121" t="s" s="2">
+      <c r="AP121" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AO121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP121" t="s" s="2">
+      <c r="AQ121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR121" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AQ121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR121" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="122" hidden="true">
@@ -18238,16 +18238,16 @@
         <v>84</v>
       </c>
       <c r="AM122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AN122" t="s" s="2">
+      <c r="AP122" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ122" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsOx.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
